--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject29.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject29.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.81406282159508225</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.62508896000868419</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -326,21 +326,21 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.5859031497146775</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.88720612145694411</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.7245978608935012</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>0.97709529177196719</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="0">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.56604434471342957</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.70803830600342366</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.76723185388081494</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
+        <v>0.71984870028579295</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0</v>
+        <v>0.95992422866566895</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="0">
-        <v>0</v>
+        <v>0.79595602216956751</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.91952500895389266</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.99729643016830405</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>0</v>
+        <v>0.59440522723235667</v>
       </c>
       <c r="BB4" s="0">
-        <v>0</v>
+        <v>0.75885580519861495</v>
       </c>
       <c r="BC4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>0</v>
+        <v>0.93528898470161403</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.51183738859704109</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.59260872711832535</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.95455795846452429</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.7781653324565132</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.89361643769866417</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>0</v>
+        <v>0.82422746288880999</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.67128876370545576</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.60178377160894536</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.62089977815160857</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0</v>
+        <v>0.54663095190914635</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0</v>
+        <v>0.96992387282362236</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.63445865593810213</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.65937389415356318</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.80787963004347474</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="0">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>0.96231827651185209</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.99728152884249721</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.91123217021570058</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="0">
         <v>0</v>
       </c>
       <c r="AY9" s="0">
-        <v>0</v>
+        <v>0.96829903530705175</v>
       </c>
       <c r="AZ9" s="0">
         <v>0</v>
       </c>
       <c r="BA9" s="0">
-        <v>0</v>
+        <v>0.63161165623308035</v>
       </c>
       <c r="BB9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>0.90816901660929061</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.54192608574081258</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.70794675533830598</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.78390678812140735</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0</v>
+        <v>0.68631799361435752</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="0">
-        <v>0</v>
+        <v>0.9814944691439117</v>
       </c>
       <c r="S11" s="0">
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>0</v>
+        <v>0.65166079133631061</v>
       </c>
       <c r="Z11" s="0">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.51093147502713276</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.58706004600591588</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.91996168909472265</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.92813006661412523</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.50571781514824088</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.73509352543541884</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.99444118810692639</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.92950728725993115</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.65402012783458374</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.87147427915351272</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.90131097696507267</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="0">
-        <v>0</v>
+        <v>0.91819718985871734</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.77624284271111499</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.52290040653702419</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="BL15" s="0">
-        <v>0</v>
+        <v>0.95218792086850046</v>
       </c>
       <c r="BM15" s="0">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0</v>
+        <v>0.86099178021556844</v>
       </c>
       <c r="BP15" s="0">
-        <v>0</v>
+        <v>0.98190104062709671</v>
       </c>
     </row>
     <row r="16">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.99267171505010254</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.82961485631210907</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.57376628143125497</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="0">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>0.79737106388355794</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>0</v>
+        <v>0.68443663198071214</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.67041197519918516</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.6138176052439388</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="0">
-        <v>0</v>
+        <v>0.65839727762770284</v>
       </c>
       <c r="AL17" s="0">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>0</v>
+        <v>0.63608273353912459</v>
       </c>
       <c r="L18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.63849471901932597</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.7377675457304258</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.60836616781473651</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.64401238610986244</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3878,25 +3878,25 @@
         <v>0</v>
       </c>
       <c r="O19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.80347310826140372</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.57084385735087906</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.68076414377526195</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3923,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0</v>
+        <v>0.97689988284417695</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.68478108302925411</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.66558519951133688</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.92796638848003044</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.55620848657451938</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.82826717140416073</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.60479363722277601</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.6458341432860899</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.92023150764441919</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.89877996672932592</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.65744508825418846</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.56940618505532825</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.56871536343605955</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="0">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>0</v>
+        <v>0.72143270858026542</v>
       </c>
       <c r="BC22" s="0">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.86065348619511872</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.9974800561047541</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.67222041893619089</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.98037270557884937</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.6243972702265207</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.52234143696260094</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.62457597553699951</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0</v>
+        <v>0.58222630244046147</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0</v>
+        <v>0.60203389053393408</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.67672165538880269</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.92694354555131653</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.89812715323509718</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.62839826263490717</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="0">
-        <v>0</v>
+        <v>0.9341671088251251</v>
       </c>
       <c r="AS26" s="0">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AY26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="0">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.92281589006080189</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.79824137105119009</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="0">
-        <v>0</v>
+        <v>0.8879728148442263</v>
       </c>
       <c r="AV27" s="0">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>0</v>
+        <v>0.64162367617047156</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>0</v>
+        <v>0.95864583233607492</v>
       </c>
     </row>
     <row r="28">
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.60480402967409175</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.9603509349570658</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>0</v>
+        <v>0.69942359176632762</v>
       </c>
       <c r="BH28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>0</v>
+        <v>0.92585161510664693</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0">
         <v>0</v>
@@ -5977,16 +5977,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.97570239989733332</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.55696400294780457</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>0</v>
+        <v>0.81469932273193191</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6094,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0</v>
+        <v>0.58686416567859589</v>
       </c>
       <c r="BP29" s="0">
-        <v>0</v>
+        <v>0.94308075216362075</v>
       </c>
     </row>
     <row r="30">
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0</v>
+        <v>0.92504026466207334</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.62158598094325079</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.88522408995933388</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.5231460307483945</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.67441387083950222</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.81937445291759015</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.96673130056794698</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.91244919059023255</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.6252079378122084</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.64976975569040674</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0</v>
+        <v>0.66288402082259279</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.53804149769642984</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.79742669519091769</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.96112080175375125</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.64654356691300641</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>0.91944729511803691</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.56645733027581779</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.7108718829204641</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.66476273229973182</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0</v>
+        <v>0.74552583706524134</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.73564363744498906</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.7916163680988304</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.55027699496028548</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.97712184924613443</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="BO35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP35" s="0">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.72086906539711249</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.77410204868858934</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.75494247797772696</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="0">
         <v>0</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="AV36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="0">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>0</v>
+        <v>0.89871681405433623</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0</v>
+        <v>0.97522260004205918</v>
       </c>
       <c r="R37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.63338148205452249</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.51812885549126109</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.56358542748796814</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.624404639417943</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.78758746516196465</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.9019865265164142</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.82084172594066573</v>
       </c>
       <c r="AO38" s="0">
-        <v>0</v>
+        <v>0.57014753853523981</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.9796716894642713</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.61867337904451569</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.7207852465593958</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="0">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>0</v>
+        <v>0.83607622892135969</v>
       </c>
       <c r="G40" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.61396703924771812</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.81190119112850834</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.77322781194772316</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.5279990059747528</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8479,22 +8479,22 @@
         <v>0</v>
       </c>
       <c r="AL41" s="0">
-        <v>0</v>
+        <v>0.69593126498163271</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.56229908762664182</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.6526926035716244</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.99836140534316897</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="0">
-        <v>0</v>
+        <v>0.75954497501352025</v>
       </c>
       <c r="BG41" s="0">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.753945933472424</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.87030472280376314</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.83014994239232109</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.85893691318887577</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>0</v>
+        <v>0.62687683503649494</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.80813133097493406</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.76726607408646608</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="AX43" s="0">
-        <v>0</v>
+        <v>0.58707104820191458</v>
       </c>
       <c r="AY43" s="0">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>0</v>
+        <v>0.9614070074926202</v>
       </c>
       <c r="AA44" s="0">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.56095550401544148</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.97354825413689683</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.85619166117736245</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.90423711951960495</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9318,25 +9318,25 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.59668641033511993</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.6952982975850639</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
       </c>
       <c r="AW45" s="0">
-        <v>0</v>
+        <v>0.61073485558430651</v>
       </c>
       <c r="AX45" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.80084752739243981</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.66586304991947809</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.88231108236727396</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.84030597286364328</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="0">
-        <v>0</v>
+        <v>0.60340304895015429</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.91472829715841364</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.94983923328788777</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.94466999097922166</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.57099543957281407</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.61547314269527487</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.81532147707475766</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10040,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>0</v>
+        <v>0.69354284898409468</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="0">
-        <v>0</v>
+        <v>0.56787799142107676</v>
       </c>
       <c r="AT49" s="0">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.85967794896043315</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.7970377748961075</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.6224746588143979</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0</v>
+        <v>0.67130209428121557</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="0">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="0">
-        <v>0</v>
+        <v>0.65643281931736874</v>
       </c>
       <c r="AR50" s="0">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.93966779795300015</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.66313263390511512</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.9272835629733347</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>0</v>
+        <v>0.75144882084819431</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0</v>
+        <v>0.76849936716233636</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.69927594045939234</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.61490298545577682</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10784,16 +10784,16 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.80421725556122348</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>0</v>
+        <v>0.6671731819735256</v>
       </c>
       <c r="BM52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
+        <v>0.65171846872070827</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>0</v>
+        <v>0.62106689401805737</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
@@ -10993,16 +10993,16 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>0</v>
+        <v>0.76171155902223342</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>0</v>
+        <v>0.75661370964110042</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.92555129159302907</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.63621686187272086</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.52906809359613116</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.62393967262376893</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>0</v>
+        <v>0.87720348013935878</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.77012649698010571</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.54161667064742169</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.64070563167125028</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>0</v>
+        <v>0.64294682745593579</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.92039483299138758</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.54048973188260629</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>0</v>
+        <v>0.61595145209887026</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.73276279052578408</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.98922716050952431</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.81209470437280795</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>0</v>
+        <v>0.83111172607236017</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="0">
-        <v>0</v>
+        <v>0.58573153828089186</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.52864498662576942</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.82834293365678646</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.92721391967483568</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.74371088705433663</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.59732290780501618</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.57870425747022636</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.52625826027948186</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.99363614420949931</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>0</v>
+        <v>0.94986371661241009</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.62831368755379258</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.95422675481271457</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>0</v>
+        <v>0.85152042898990554</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>0</v>
+        <v>0.75741514438178836</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="AM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN62" s="0">
         <v>0</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.63252316041480516</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.74209274997389241</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.6619227301388384</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -13080,22 +13080,22 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.92734346085527697</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.78397751570876095</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
       </c>
       <c r="BN63" s="0">
-        <v>0</v>
+        <v>0.78849667568137427</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>0</v>
+        <v>0.72235587365199339</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="0">
-        <v>0</v>
+        <v>0.87274547363692256</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>0</v>
+        <v>0.57231929631977585</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13292,16 +13292,16 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.74549598207781287</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.97629414798286351</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.89766190166603854</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.75364066355407844</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13704,27 +13704,27 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0</v>
+        <v>0.860225573858165</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.53001224351944221</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.69888091704515432</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.88857931311569471</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.54593472029844248</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>0</v>
+        <v>0.56731235684427417</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0</v>
+        <v>0.96966848331276312</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="AI67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.71612595120662081</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.66877312222934537</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.90855576171814478</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>0</v>
+        <v>0.6589510637177679</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -14008,13 +14008,13 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0</v>
+        <v>0.93880515267144227</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>0</v>
+        <v>0.75975293793670962</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.71789498358167836</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject29.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject29.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.81406282159508225</v>
+        <v>0.88720612145694411</v>
       </c>
       <c r="C1" s="0">
         <v>0.62508896000868419</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.5859031497146775</v>
+        <v>0.90855576171814478</v>
       </c>
     </row>
     <row r="2">
@@ -540,16 +540,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.56604434471342957</v>
+        <v>0.62508896000868419</v>
       </c>
       <c r="B3" s="0">
-        <v>0.70803830600342366</v>
+        <v>0.7245978608935012</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.76723185388081494</v>
+        <v>0.91952500895389266</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0.71984870028579295</v>
+        <v>0.96231827651185209</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.79595602216956751</v>
+        <v>0.91944729511803691</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>0.59440522723235667</v>
+        <v>0.65171846872070827</v>
       </c>
       <c r="BB4" s="0">
-        <v>0.75885580519861495</v>
+        <v>0.76171155902223342</v>
       </c>
       <c r="BC4" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.51183738859704109</v>
+        <v>0.7781653324565132</v>
       </c>
       <c r="G5" s="0">
-        <v>0.59260872711832535</v>
+        <v>0.67128876370545576</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.95455795846452429</v>
+        <v>0.99729643016830405</v>
       </c>
       <c r="E6" s="0">
         <v>0.7781653324565132</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.82422746288880999</v>
+        <v>0.83607622892135969</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0.67128876370545576</v>
       </c>
       <c r="F7" s="0">
-        <v>0.60178377160894536</v>
+        <v>0.89361643769866417</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.62089977815160857</v>
+        <v>0.63445865593810213</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.54663095190914635</v>
+        <v>0.68443663198071214</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.65937389415356318</v>
+        <v>0.99728152884249721</v>
       </c>
       <c r="J8" s="0">
         <v>0.80787963004347474</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0.90816901660929061</v>
+        <v>0.97709529177196719</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.54192608574081258</v>
+        <v>0.80787963004347474</v>
       </c>
       <c r="I10" s="0">
-        <v>0.70794675533830598</v>
+        <v>0.91123217021570058</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0.68631799361435752</v>
+        <v>0.69354284898409468</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0.51093147502713276</v>
+        <v>0.74371088705433663</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.58706004600591588</v>
+        <v>0.78390678812140735</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0.91996168909472265</v>
       </c>
       <c r="N12" s="0">
-        <v>0.92813006661412523</v>
+        <v>0.92950728725993115</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.50571781514824088</v>
+        <v>0.91996168909472265</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0.92950728725993115</v>
       </c>
       <c r="M14" s="0">
-        <v>0.65402012783458374</v>
+        <v>0.73509352543541884</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.87147427915351272</v>
       </c>
       <c r="P14" s="0">
-        <v>0.90131097696507267</v>
+        <v>0.99267171505010254</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.77624284271111499</v>
+        <v>0.99444118810692639</v>
       </c>
       <c r="N15" s="0">
-        <v>0.52290040653702419</v>
+        <v>0.87147427915351272</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0.82961485631210907</v>
       </c>
       <c r="R16" s="0">
-        <v>0.57376628143125497</v>
+        <v>0.63849471901932597</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>0.79737106388355794</v>
+        <v>0.95992422866566895</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.67041197519918516</v>
+        <v>0.82961485631210907</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.6138176052439388</v>
+        <v>0.7377675457304258</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="0">
-        <v>0.65839727762770284</v>
+        <v>0.97522260004205918</v>
       </c>
       <c r="AL17" s="0">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>0.63608273353912459</v>
+        <v>0.9814944691439117</v>
       </c>
       <c r="L18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.60836616781473651</v>
+        <v>0.80347310826140372</v>
       </c>
       <c r="T18" s="0">
-        <v>0.64401238610986244</v>
+        <v>0.68478108302925411</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.57084385735087906</v>
+        <v>0.66558519951133688</v>
       </c>
       <c r="U19" s="0">
-        <v>0.68076414377526195</v>
+        <v>0.82826717140416073</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.92796638848003044</v>
       </c>
       <c r="V20" s="0">
-        <v>0.55620848657451938</v>
+        <v>0.89877996672932592</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0.82826717140416073</v>
       </c>
       <c r="T21" s="0">
-        <v>0.60479363722277601</v>
+        <v>0.92796638848003044</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.6458341432860899</v>
+        <v>0.65744508825418846</v>
       </c>
       <c r="W21" s="0">
         <v>0.92023150764441919</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.56940618505532825</v>
+        <v>0.9974800561047541</v>
       </c>
       <c r="X22" s="0">
-        <v>0.56871536343605955</v>
+        <v>0.6243972702265207</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>0.72143270858026542</v>
+        <v>0.75661370964110042</v>
       </c>
       <c r="BC22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.86065348619511872</v>
+        <v>0.92023150764441919</v>
       </c>
       <c r="V23" s="0">
         <v>0.9974800561047541</v>
@@ -4932,13 +4932,13 @@
         <v>0.6243972702265207</v>
       </c>
       <c r="W24" s="0">
-        <v>0.52234143696260094</v>
+        <v>0.67222041893619089</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.62457597553699951</v>
+        <v>0.92694354555131653</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0.58222630244046147</v>
+        <v>0.62687683503649494</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0.60203389053393408</v>
+        <v>0.65166079133631061</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.67672165538880269</v>
+        <v>0.98037270557884937</v>
       </c>
       <c r="X25" s="0">
         <v>0.92694354555131653</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.89812715323509718</v>
+        <v>0.92281589006080189</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="0">
-        <v>0.9341671088251251</v>
+        <v>0.9614070074926202</v>
       </c>
       <c r="AS26" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.79824137105119009</v>
+        <v>0.9603509349570658</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>0.64162367617047156</v>
+        <v>0.67130209428121557</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.60480402967409175</v>
+        <v>0.62839826263490717</v>
       </c>
       <c r="AA28" s="0">
         <v>0.9603509349570658</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>0.81469932273193191</v>
+        <v>0.94986371661241009</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0.58686416567859589</v>
+        <v>0.96966848331276312</v>
       </c>
       <c r="BP29" s="0">
         <v>0.94308075216362075</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0.92504026466207334</v>
+        <v>0.97689988284417695</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.62158598094325079</v>
+        <v>0.97570239989733332</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.5231460307483945</v>
+        <v>0.55696400294780457</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.67441387083950222</v>
+        <v>0.88522408995933388</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.81937445291759015</v>
+        <v>0.91244919059023255</v>
       </c>
       <c r="AG31" s="0">
         <v>0.96673130056794698</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.6252079378122084</v>
+        <v>0.79742669519091769</v>
       </c>
       <c r="AH32" s="0">
         <v>0.64976975569040674</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0.66288402082259279</v>
+        <v>0.87720348013935878</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.53804149769642984</v>
+        <v>0.96673130056794698</v>
       </c>
       <c r="AF33" s="0">
         <v>0.79742669519091769</v>
@@ -6822,7 +6822,7 @@
         <v>0.96112080175375125</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.64654356691300641</v>
+        <v>0.73564363744498906</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.56645733027581779</v>
+        <v>0.64976975569040674</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.7108718829204641</v>
+        <v>0.96112080175375125</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.66476273229973182</v>
+        <v>0.7916163680988304</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0.74552583706524134</v>
+        <v>0.75741514438178836</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.55027699496028548</v>
+        <v>0.72086906539711249</v>
       </c>
       <c r="AK35" s="0">
         <v>0.97712184924613443</v>
@@ -7449,7 +7449,7 @@
         <v>0.77410204868858934</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.75494247797772696</v>
+        <v>0.78758746516196465</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.63338148205452249</v>
+        <v>0.97712184924613443</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.51812885549126109</v>
+        <v>0.77410204868858934</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.56358542748796814</v>
+        <v>0.9019865265164142</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.624404639417943</v>
+        <v>0.9796716894642713</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0.82084172594066573</v>
       </c>
       <c r="AO38" s="0">
-        <v>0.57014753853523981</v>
+        <v>0.69593126498163271</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.61867337904451569</v>
+        <v>0.81190119112850834</v>
       </c>
       <c r="AO39" s="0">
         <v>0.7207852465593958</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.61396703924771812</v>
+        <v>0.82084172594066573</v>
       </c>
       <c r="AM40" s="0">
         <v>0.81190119112850834</v>
@@ -8285,7 +8285,7 @@
         <v>0.77322781194772316</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.5279990059747528</v>
+        <v>0.753945933472424</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0.69593126498163271</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.56229908762664182</v>
+        <v>0.7207852465593958</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.6526926035716244</v>
+        <v>0.77322781194772316</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0.753945933472424</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.87030472280376314</v>
+        <v>0.99836140534316897</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8903,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.80813133097493406</v>
+        <v>0.83014994239232109</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.76726607408646608</v>
+        <v>0.97354825413689683</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="AX43" s="0">
-        <v>0.58707104820191458</v>
+        <v>0.65643281931736874</v>
       </c>
       <c r="AY43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.56095550401544148</v>
+        <v>0.85893691318887577</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.97354825413689683</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.59668641033511993</v>
+        <v>0.85619166117736245</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.80084752739243981</v>
+        <v>0.90423711951960495</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.66586304991947809</v>
+        <v>0.6952982975850639</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.88231108236727396</v>
+        <v>0.91472829715841364</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.84030597286364328</v>
+        <v>0.94466999097922166</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="0">
-        <v>0.60340304895015429</v>
+        <v>0.8879728148442263</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>0.94466999097922166</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.57099543957281407</v>
+        <v>0.94983923328788777</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.61547314269527487</v>
+        <v>0.85967794896043315</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.81532147707475766</v>
+        <v>0.93966779795300015</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="0">
-        <v>0.56787799142107676</v>
+        <v>0.61073485558430651</v>
       </c>
       <c r="AT49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0.7970377748961075</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.6224746588143979</v>
+        <v>0.69927594045939234</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0.93966779795300015</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.66313263390511512</v>
+        <v>0.7970377748961075</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>0.75144882084819431</v>
+        <v>0.96829903530705175</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0.76849936716233636</v>
+        <v>0.89871681405433623</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0.69927594045939234</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.61490298545577682</v>
+        <v>0.9272835629733347</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.80421725556122348</v>
+        <v>0.92555129159302907</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>0.62106689401805737</v>
+        <v>0.63161165623308035</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.63621686187272086</v>
+        <v>0.77012649698010571</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.52906809359613116</v>
+        <v>0.54161667064742169</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.62393967262376893</v>
+        <v>0.92039483299138758</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.64070563167125028</v>
+        <v>0.73276279052578408</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>0.64294682745593579</v>
+        <v>0.93528898470161403</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="AO58" s="0">
-        <v>0.61595145209887026</v>
+        <v>0.75954497501352025</v>
       </c>
       <c r="AP58" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>0.83111172607236017</v>
+        <v>0.91819718985871734</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="0">
-        <v>0.58573153828089186</v>
+        <v>0.69942359176632762</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.52864498662576942</v>
+        <v>0.54048973188260629</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.82834293365678646</v>
+        <v>0.98922716050952431</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12453,16 +12453,16 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.59732290780501618</v>
+        <v>0.81209470437280795</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.57870425747022636</v>
+        <v>0.92721391967483568</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.52625826027948186</v>
+        <v>0.62831368755379258</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.99363614420949931</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>0.85152042898990554</v>
+        <v>0.92585161510664693</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.63252316041480516</v>
+        <v>0.99363614420949931</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.74209274997389241</v>
+        <v>0.95422675481271457</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.6619227301388384</v>
+        <v>0.92734346085527697</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="BN63" s="0">
-        <v>0.78849667568137427</v>
+        <v>0.860225573858165</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>0.72235587365199339</v>
+        <v>0.96992387282362236</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="0">
-        <v>0.87274547363692256</v>
+        <v>0.95218792086850046</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>0.57231929631977585</v>
+        <v>0.6671731819735256</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.74549598207781287</v>
+        <v>0.78397751570876095</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0.860225573858165</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.53001224351944221</v>
+        <v>0.97629414798286351</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.69888091704515432</v>
+        <v>0.89766190166603854</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0.88857931311569471</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.54593472029844248</v>
+        <v>0.71789498358167836</v>
       </c>
     </row>
     <row r="67">
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>0.56731235684427417</v>
+        <v>0.86099178021556844</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.71612595120662081</v>
+        <v>0.75364066355407844</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.66877312222934537</v>
+        <v>0.88857931311569471</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>0.6589510637177679</v>
+        <v>0.98190104062709671</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -14008,13 +14008,13 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0.93880515267144227</v>
+        <v>0.95864583233607492</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>0.75975293793670962</v>
+        <v>0.94308075216362075</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
